--- a/Charts20160405.xlsx
+++ b/Charts20160405.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7740" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Environmental variables" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="Chart1" sheetId="6" r:id="rId3"/>
     <sheet name="Model selection" sheetId="2" r:id="rId4"/>
     <sheet name="Model selection-product" sheetId="5" r:id="rId5"/>
+    <sheet name="H1 suitability" sheetId="9" r:id="rId6"/>
+    <sheet name="Significance" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -134,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="188">
   <si>
     <t>Layer</t>
   </si>
@@ -617,6 +619,87 @@
   </si>
   <si>
     <t>NW</t>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t>Slope (%)</t>
+  </si>
+  <si>
+    <t>Dtrain</t>
+  </si>
+  <si>
+    <t>Ltrain</t>
+  </si>
+  <si>
+    <t>Dtest</t>
+  </si>
+  <si>
+    <t>Ltest</t>
+  </si>
+  <si>
+    <t>Delta- Training-test D</t>
+  </si>
+  <si>
+    <t>Delta- Training-test L</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>t-pearson</t>
+  </si>
+  <si>
+    <t>df-pearson</t>
+  </si>
+  <si>
+    <t>p-pearson</t>
+  </si>
+  <si>
+    <t>H0</t>
+  </si>
+  <si>
+    <t>z-kendall</t>
+  </si>
+  <si>
+    <t>p-kendal</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Lowest</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>MLm</t>
+  </si>
+  <si>
+    <t>MDt</t>
+  </si>
+  <si>
+    <t>Range overlap at lowest in H1</t>
   </si>
 </sst>
 </file>
@@ -626,7 +709,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,13 +730,47 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -665,10 +782,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -681,11 +799,59 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1649,11 +1815,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="483465360"/>
-        <c:axId val="483464184"/>
+        <c:axId val="299171360"/>
+        <c:axId val="299171752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="483465360"/>
+        <c:axId val="299171360"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1696,7 +1862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483464184"/>
+        <c:crossAx val="299171752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1704,7 +1870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="483464184"/>
+        <c:axId val="299171752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.98"/>
@@ -1757,7 +1923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483465360"/>
+        <c:crossAx val="299171360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1771,7 +1937,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2983,10 +3148,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2994,7 +3159,7 @@
     <col min="1" max="1" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>153</v>
@@ -3020,8 +3185,11 @@
       <c r="I1" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>149</v>
       </c>
@@ -3050,7 +3218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>151</v>
       </c>
@@ -3079,7 +3247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>150</v>
       </c>
@@ -3108,7 +3276,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>152</v>
       </c>
@@ -3135,6 +3303,11 @@
       </c>
       <c r="I5" s="4">
         <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3146,9 +3319,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ37" sqref="AJ37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8776,1420 +8949,2998 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E64"/>
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="106.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>'Model selection'!A1</f>
+        <v>Model name</v>
+      </c>
+      <c r="B1" t="str">
+        <f>'Model selection'!D1</f>
+        <v>Description</v>
+      </c>
+      <c r="C1" t="str">
+        <f>'Model selection'!E1</f>
+        <v>Number of factors</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'Model selection'!A2</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'Model selection'!D2</f>
+        <v>Landsat raw</v>
+      </c>
+      <c r="C2">
+        <f>'Model selection'!E2</f>
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <f>'Model selection'!F2</f>
+        <v>0.67279999999999995</v>
+      </c>
+      <c r="E2">
+        <f>'Model selection'!G2</f>
+        <v>0.75</v>
+      </c>
+      <c r="F2">
+        <f>'Model selection'!H2</f>
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="G2">
+        <f>'Model selection'!I2</f>
+        <v>0.50509999999999999</v>
+      </c>
+      <c r="H2">
+        <f>D2-F2</f>
+        <v>-0.18110000000000004</v>
+      </c>
+      <c r="I2">
+        <f>E2-G2</f>
+        <v>0.24490000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>'Model selection'!A3</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'Model selection'!D3</f>
+        <v>Landsat, NDVI</v>
+      </c>
+      <c r="C3">
+        <f>'Model selection'!E3</f>
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f>'Model selection'!F3</f>
+        <v>0.71060000000000001</v>
+      </c>
+      <c r="E3">
+        <f>'Model selection'!G3</f>
+        <v>0.77</v>
+      </c>
+      <c r="F3">
+        <f>'Model selection'!H3</f>
+        <v>0.82489999999999997</v>
+      </c>
+      <c r="G3">
+        <f>'Model selection'!I3</f>
+        <v>0.51139999999999997</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H64" si="0">D3-F3</f>
+        <v>-0.11429999999999996</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I64" si="1">E3-G3</f>
+        <v>0.25860000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>'Model selection'!A4</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'Model selection'!D4</f>
+        <v>NDVI, ALB, MSR, RNDVI</v>
+      </c>
+      <c r="C4">
+        <f>'Model selection'!E4</f>
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f>'Model selection'!F4</f>
+        <v>0.72340000000000004</v>
+      </c>
+      <c r="E4">
+        <f>'Model selection'!G4</f>
+        <v>0.75570000000000004</v>
+      </c>
+      <c r="F4">
+        <f>'Model selection'!H4</f>
+        <v>0.57930000000000004</v>
+      </c>
+      <c r="G4">
+        <f>'Model selection'!I4</f>
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.14410000000000001</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0.21150000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>'Model selection'!A5</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'Model selection'!D5</f>
+        <v>Landsat, NDVI, ALB, MSR, RNDVI</v>
+      </c>
+      <c r="C5">
+        <f>'Model selection'!E5</f>
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f>'Model selection'!F5</f>
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="E5">
+        <f>'Model selection'!G5</f>
+        <v>0.77</v>
+      </c>
+      <c r="F5">
+        <f>'Model selection'!H5</f>
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="G5">
+        <f>'Model selection'!I5</f>
+        <v>0.51139999999999997</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.13050000000000006</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.25860000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>'Model selection'!A6</f>
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'Model selection'!D6</f>
+        <v>Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW</v>
+      </c>
+      <c r="C6">
+        <f>'Model selection'!E6</f>
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f>'Model selection'!F6</f>
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="E6">
+        <f>'Model selection'!G6</f>
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="F6">
+        <f>'Model selection'!H6</f>
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="G6">
+        <f>'Model selection'!I6</f>
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.13050000000000006</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.22659999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>'Model selection'!A7</f>
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f>'Model selection'!D7</f>
+        <v>Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
+      </c>
+      <c r="C7">
+        <f>'Model selection'!E7</f>
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <f>'Model selection'!F7</f>
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="E7">
+        <f>'Model selection'!G7</f>
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="F7">
+        <f>'Model selection'!H7</f>
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="G7">
+        <f>'Model selection'!I7</f>
+        <v>0.57620000000000005</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.13050000000000006</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.21429999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>'Model selection'!A8</f>
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f>'Model selection'!D8</f>
+        <v>TCT-BGW</v>
+      </c>
+      <c r="C8">
+        <f>'Model selection'!E8</f>
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f>'Model selection'!F8</f>
+        <v>0.69820000000000004</v>
+      </c>
+      <c r="E8">
+        <f>'Model selection'!G8</f>
+        <v>0.76619999999999999</v>
+      </c>
+      <c r="F8">
+        <f>'Model selection'!H8</f>
+        <v>0.8216</v>
+      </c>
+      <c r="G8">
+        <f>'Model selection'!I8</f>
+        <v>0.54479999999999995</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-0.12339999999999995</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.22140000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>'Model selection'!A9</f>
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f>'Model selection'!D9</f>
+        <v>TCT-BGW, TCT 123</v>
+      </c>
+      <c r="C9">
+        <f>'Model selection'!E9</f>
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <f>'Model selection'!F9</f>
+        <v>0.69820000000000004</v>
+      </c>
+      <c r="E9">
+        <f>'Model selection'!G9</f>
+        <v>0.79010000000000002</v>
+      </c>
+      <c r="F9">
+        <f>'Model selection'!H9</f>
+        <v>0.8216</v>
+      </c>
+      <c r="G9">
+        <f>'Model selection'!I9</f>
+        <v>0.5756</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-0.12339999999999995</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.21450000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>'Model selection'!A10</f>
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f>'Model selection'!D10</f>
+        <v>Landsat, TCT-BGW, TCT 123</v>
+      </c>
+      <c r="C10">
+        <f>'Model selection'!E10</f>
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f>'Model selection'!F10</f>
+        <v>0.69820000000000004</v>
+      </c>
+      <c r="E10">
+        <f>'Model selection'!G10</f>
+        <v>0.79010000000000002</v>
+      </c>
+      <c r="F10">
+        <f>'Model selection'!H10</f>
+        <v>0.8216</v>
+      </c>
+      <c r="G10">
+        <f>'Model selection'!I10</f>
+        <v>0.5756</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-0.12339999999999995</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.21450000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>'Model selection'!A11</f>
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'Model selection'!D11</f>
+        <v>Landsat, NDVI, NGHTLGHT</v>
+      </c>
+      <c r="C11">
+        <f>'Model selection'!E11</f>
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <f>'Model selection'!F11</f>
+        <v>0.74739999999999995</v>
+      </c>
+      <c r="E11">
+        <f>'Model selection'!G11</f>
+        <v>0.83730000000000004</v>
+      </c>
+      <c r="F11">
+        <f>'Model selection'!H11</f>
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="G11">
+        <f>'Model selection'!I11</f>
+        <v>0.44</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-0.18010000000000004</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0.39730000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>'Model selection'!A12</f>
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f>'Model selection'!D12</f>
+        <v>NDVI, ALB, MSR, RNDVI, NGHTLGHT</v>
+      </c>
+      <c r="C12">
+        <f>'Model selection'!E12</f>
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f>'Model selection'!F12</f>
+        <v>0.75329999999999997</v>
+      </c>
+      <c r="E12">
+        <f>'Model selection'!G12</f>
+        <v>0.82369999999999999</v>
+      </c>
+      <c r="F12">
+        <f>'Model selection'!H12</f>
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="G12">
+        <f>'Model selection'!I12</f>
+        <v>0.4254</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2.1799999999999931E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.39829999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>'Model selection'!A13</f>
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f>'Model selection'!D13</f>
+        <v>Landsat, NDVI, ALB, MSR, RNDVI, NGHTLGHT</v>
+      </c>
+      <c r="C13">
+        <f>'Model selection'!E13</f>
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <f>'Model selection'!F13</f>
+        <v>0.77939999999999998</v>
+      </c>
+      <c r="E13">
+        <f>'Model selection'!G13</f>
+        <v>0.83730000000000004</v>
+      </c>
+      <c r="F13">
+        <f>'Model selection'!H13</f>
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="G13">
+        <f>'Model selection'!I13</f>
+        <v>0.44</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1.2900000000000023E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0.39730000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>'Model selection'!A14</f>
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f>'Model selection'!D14</f>
+        <v>Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, NGHTLGHT</v>
+      </c>
+      <c r="C14">
+        <f>'Model selection'!E14</f>
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <f>'Model selection'!F14</f>
+        <v>0.77939999999999998</v>
+      </c>
+      <c r="E14">
+        <f>'Model selection'!G14</f>
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="F14">
+        <f>'Model selection'!H14</f>
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="G14">
+        <f>'Model selection'!I14</f>
+        <v>0.4531</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1.2900000000000023E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.38840000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>'Model selection'!A15</f>
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f>'Model selection'!D15</f>
+        <v>Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C15">
+        <f>'Model selection'!E15</f>
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <f>'Model selection'!F15</f>
+        <v>0.77939999999999998</v>
+      </c>
+      <c r="E15">
+        <f>'Model selection'!G15</f>
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="F15">
+        <f>'Model selection'!H15</f>
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="G15">
+        <f>'Model selection'!I15</f>
+        <v>0.46210000000000001</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.2900000000000023E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0.38159999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>'Model selection'!A16</f>
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f>'Model selection'!D16</f>
+        <v>TCT-BGW, NGHTLGHT</v>
+      </c>
+      <c r="C16">
+        <f>'Model selection'!E16</f>
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0.75670000000000004</v>
+      </c>
+      <c r="E16">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="F16">
+        <f>'Model selection'!H16</f>
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="G16">
+        <f>'Model selection'!I16</f>
+        <v>0.4531</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>-0.19029999999999991</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0.38840000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>'Model selection'!A17</f>
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f>'Model selection'!D17</f>
+        <v>TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C17">
+        <f>'Model selection'!E17</f>
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <f>'Model selection'!F17</f>
+        <v>0.7571</v>
+      </c>
+      <c r="E17">
+        <f>'Model selection'!G17</f>
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="F17">
+        <f>'Model selection'!H17</f>
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="G17">
+        <f>'Model selection'!I17</f>
+        <v>0.46210000000000001</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>-0.19000000000000006</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0.38159999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>'Model selection'!A18</f>
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f>'Model selection'!D18</f>
+        <v>Landsat, TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C18">
+        <f>'Model selection'!E18</f>
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <f>'Model selection'!F18</f>
+        <v>0.75629999999999997</v>
+      </c>
+      <c r="E18">
+        <f>'Model selection'!G18</f>
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="F18">
+        <f>'Model selection'!H18</f>
+        <v>0.94689999999999996</v>
+      </c>
+      <c r="G18">
+        <f>'Model selection'!I18</f>
+        <v>0.46210000000000001</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>-0.19059999999999999</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0.38159999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>'Model selection'!A19</f>
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f>'Model selection'!D19</f>
+        <v>DEM, ASP, SLP</v>
+      </c>
+      <c r="C19">
+        <f>'Model selection'!E19</f>
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <f>'Model selection'!F19</f>
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="E19">
+        <f>'Model selection'!G19</f>
+        <v>0.78990000000000005</v>
+      </c>
+      <c r="F19">
+        <f>'Model selection'!H19</f>
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="G19">
+        <f>'Model selection'!I19</f>
+        <v>0.73460000000000003</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>-0.14910000000000001</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>5.5300000000000016E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>'Model selection'!A20</f>
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <f>'Model selection'!D20</f>
+        <v>DEM, ASP, SLP, ASP-SLP</v>
+      </c>
+      <c r="C20">
+        <f>'Model selection'!E20</f>
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <f>'Model selection'!F20</f>
+        <v>0.69710000000000005</v>
+      </c>
+      <c r="E20">
+        <f>'Model selection'!G20</f>
+        <v>0.79069999999999996</v>
+      </c>
+      <c r="F20">
+        <f>'Model selection'!H20</f>
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="G20">
+        <f>'Model selection'!I20</f>
+        <v>0.72940000000000005</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>-0.1470999999999999</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>6.129999999999991E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>'Model selection'!A21</f>
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <f>'Model selection'!D21</f>
+        <v>DEM, ASP-SLP</v>
+      </c>
+      <c r="C21">
+        <f>'Model selection'!E21</f>
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f>'Model selection'!F21</f>
+        <v>0.69320000000000004</v>
+      </c>
+      <c r="E21">
+        <f>'Model selection'!G21</f>
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="F21">
+        <f>'Model selection'!H21</f>
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="G21">
+        <f>'Model selection'!I21</f>
+        <v>0.66139999999999999</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>-0.13919999999999999</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>7.9600000000000004E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>'Model selection'!A22</f>
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <f>'Model selection'!D22</f>
+        <v>DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
+      </c>
+      <c r="C22">
+        <f>'Model selection'!E22</f>
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <f>'Model selection'!F22</f>
+        <v>0.79390000000000005</v>
+      </c>
+      <c r="E22">
+        <f>'Model selection'!G22</f>
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="F22">
+        <f>'Model selection'!H22</f>
+        <v>0.86650000000000005</v>
+      </c>
+      <c r="G22">
+        <f>'Model selection'!I22</f>
+        <v>0.58160000000000001</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>-7.2599999999999998E-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0.32469999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>'Model selection'!A23</f>
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <f>'Model selection'!D23</f>
+        <v>DEM, ASP, SLP, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
+      </c>
+      <c r="C23">
+        <f>'Model selection'!E23</f>
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <f>'Model selection'!F23</f>
+        <v>0.78220000000000001</v>
+      </c>
+      <c r="E23">
+        <f>'Model selection'!G23</f>
+        <v>0.88980000000000004</v>
+      </c>
+      <c r="F23">
+        <f>'Model selection'!H23</f>
+        <v>0.75690000000000002</v>
+      </c>
+      <c r="G23">
+        <f>'Model selection'!I23</f>
+        <v>0.65110000000000001</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>2.5299999999999989E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0.23870000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>'Model selection'!A24</f>
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <f>'Model selection'!D24</f>
+        <v>DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
+      </c>
+      <c r="C24">
+        <f>'Model selection'!E24</f>
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <f>'Model selection'!F24</f>
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="E24">
+        <f>'Model selection'!G24</f>
+        <v>0.85670000000000002</v>
+      </c>
+      <c r="F24">
+        <f>'Model selection'!H24</f>
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="G24">
+        <f>'Model selection'!I24</f>
+        <v>0.60740000000000005</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>5.1300000000000012E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0.24929999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>'Model selection'!A25</f>
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <f>'Model selection'!D25</f>
+        <v>DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C25">
+        <f>'Model selection'!E25</f>
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <f>'Model selection'!F25</f>
+        <v>0.79390000000000005</v>
+      </c>
+      <c r="E25">
+        <f>'Model selection'!G25</f>
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="F25">
+        <f>'Model selection'!H25</f>
+        <v>0.86650000000000005</v>
+      </c>
+      <c r="G25">
+        <f>'Model selection'!I25</f>
+        <v>0.58160000000000001</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>-7.2599999999999998E-2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0.32469999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>'Model selection'!A26</f>
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <f>'Model selection'!D26</f>
+        <v>DEM, ASP, SLP, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C26">
+        <f>'Model selection'!E26</f>
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <f>'Model selection'!F26</f>
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="E26">
+        <f>'Model selection'!G26</f>
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="F26">
+        <f>'Model selection'!H26</f>
+        <v>0.86739999999999995</v>
+      </c>
+      <c r="G26">
+        <f>'Model selection'!I26</f>
+        <v>0.56559999999999999</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>-6.6799999999999971E-2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0.33430000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>'Model selection'!A27</f>
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <f>'Model selection'!D27</f>
+        <v>DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C27">
+        <f>'Model selection'!E27</f>
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <f>'Model selection'!F27</f>
+        <v>0.79969999999999997</v>
+      </c>
+      <c r="E27">
+        <f>'Model selection'!G27</f>
+        <v>0.87319999999999998</v>
+      </c>
+      <c r="F27">
+        <f>'Model selection'!H27</f>
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="G27">
+        <f>'Model selection'!I27</f>
+        <v>0.52780000000000005</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>-4.2300000000000004E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0.34539999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>'Model selection'!A28</f>
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <f>'Model selection'!D28</f>
+        <v>RD-DIST, RD-DIR</v>
+      </c>
+      <c r="C28">
+        <f>'Model selection'!E28</f>
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <f>'Model selection'!F28</f>
+        <v>0.73229999999999995</v>
+      </c>
+      <c r="E28">
+        <f>'Model selection'!G28</f>
+        <v>0.65710000000000002</v>
+      </c>
+      <c r="F28">
+        <f>'Model selection'!H28</f>
+        <v>0.6845</v>
+      </c>
+      <c r="G28">
+        <f>'Model selection'!I28</f>
+        <v>0.84260000000000002</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>4.7799999999999954E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>-0.1855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>'Model selection'!A29</f>
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <f>'Model selection'!D29</f>
+        <v>RD-DIST, RD-DIR, RESIST</v>
+      </c>
+      <c r="C29">
+        <f>'Model selection'!E29</f>
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <f>'Model selection'!F29</f>
+        <v>0.73219999999999996</v>
+      </c>
+      <c r="E29">
+        <f>'Model selection'!G29</f>
+        <v>0.70009999999999994</v>
+      </c>
+      <c r="F29">
+        <f>'Model selection'!H29</f>
+        <v>0.68430000000000002</v>
+      </c>
+      <c r="G29">
+        <f>'Model selection'!I29</f>
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>4.7899999999999943E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>-0.2098000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>'Model selection'!A30</f>
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <f>'Model selection'!D30</f>
+        <v>RD-DIST, RD-DIR, DEM, ASP, SLP</v>
+      </c>
+      <c r="C30">
+        <f>'Model selection'!E30</f>
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <f>'Model selection'!F30</f>
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="E30">
+        <f>'Model selection'!G30</f>
+        <v>0.82189999999999996</v>
+      </c>
+      <c r="F30">
+        <f>'Model selection'!H30</f>
+        <v>0.87990000000000002</v>
+      </c>
+      <c r="G30">
+        <f>'Model selection'!I30</f>
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>-8.4999999999999964E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>-5.2800000000000069E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>'Model selection'!A31</f>
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <f>'Model selection'!D31</f>
+        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, ASP-SLP</v>
+      </c>
+      <c r="C31">
+        <f>'Model selection'!E31</f>
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <f>'Model selection'!F31</f>
+        <v>0.80069999999999997</v>
+      </c>
+      <c r="E31">
+        <f>'Model selection'!G31</f>
+        <v>0.8226</v>
+      </c>
+      <c r="F31">
+        <f>'Model selection'!H31</f>
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="G31">
+        <f>'Model selection'!I31</f>
+        <v>0.877</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>-8.0500000000000016E-2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>-5.4400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>'Model selection'!A32</f>
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <f>'Model selection'!D32</f>
+        <v>RD-DIST, RD-DIR, DEM, ASP-SLP</v>
+      </c>
+      <c r="C32">
+        <f>'Model selection'!E32</f>
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <f>'Model selection'!F32</f>
+        <v>0.80030000000000001</v>
+      </c>
+      <c r="E32">
+        <f>'Model selection'!G32</f>
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="F32">
+        <f>'Model selection'!H32</f>
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="G32">
+        <f>'Model selection'!I32</f>
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>-7.7400000000000024E-2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>-6.2999999999999945E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>'Model selection'!A33</f>
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <f>'Model selection'!D33</f>
+        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
+      </c>
+      <c r="C33">
+        <f>'Model selection'!E33</f>
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <f>'Model selection'!F33</f>
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="E33">
+        <f>'Model selection'!G33</f>
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="F33">
+        <f>'Model selection'!H33</f>
+        <v>0.8851</v>
+      </c>
+      <c r="G33">
+        <f>'Model selection'!I33</f>
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>-6.2599999999999989E-2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0.10739999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>'Model selection'!A34</f>
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <f>'Model selection'!D34</f>
+        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
+      </c>
+      <c r="C34">
+        <f>'Model selection'!E34</f>
+        <v>19</v>
+      </c>
+      <c r="D34">
+        <f>'Model selection'!F34</f>
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="E34">
+        <f>'Model selection'!G34</f>
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="F34">
+        <f>'Model selection'!H34</f>
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="G34">
+        <f>'Model selection'!I34</f>
+        <v>0.80030000000000001</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>-5.2099999999999924E-2</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0.10509999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>'Model selection'!A35</f>
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <f>'Model selection'!D35</f>
+        <v>RD-DIST, RD-DIR, DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
+      </c>
+      <c r="C35">
+        <f>'Model selection'!E35</f>
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <f>'Model selection'!F35</f>
+        <v>0.82989999999999997</v>
+      </c>
+      <c r="E35">
+        <f>'Model selection'!G35</f>
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="F35">
+        <f>'Model selection'!H35</f>
+        <v>0.87780000000000002</v>
+      </c>
+      <c r="G35">
+        <f>'Model selection'!I35</f>
+        <v>0.7621</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>-4.7900000000000054E-2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0.11919999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>'Model selection'!A36</f>
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <f>'Model selection'!D36</f>
+        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C36">
+        <f>'Model selection'!E36</f>
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <f>'Model selection'!F36</f>
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="E36" s="7">
+        <f>'Model selection'!G36</f>
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="F36">
+        <f>'Model selection'!H36</f>
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="G36">
+        <f>'Model selection'!I36</f>
+        <v>0.73229999999999995</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>-9.0799999999999992E-2</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>0.1856000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>'Model selection'!A37</f>
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <f>'Model selection'!D37</f>
+        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C37">
+        <f>'Model selection'!E37</f>
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <f>'Model selection'!F37</f>
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="E37">
+        <f>'Model selection'!G37</f>
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="F37">
+        <f>'Model selection'!H37</f>
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="G37">
+        <f>'Model selection'!I37</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>-8.0899999999999972E-2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>0.18800000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>'Model selection'!A38</f>
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <f>'Model selection'!D38</f>
+        <v>RD-DIST, RD-DIR, DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C38">
+        <f>'Model selection'!E38</f>
+        <v>18</v>
+      </c>
+      <c r="D38" s="7">
+        <f>'Model selection'!F38</f>
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="E38">
+        <f>'Model selection'!G38</f>
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="F38">
+        <f>'Model selection'!H38</f>
+        <v>0.93089999999999995</v>
+      </c>
+      <c r="G38">
+        <f>'Model selection'!I38</f>
+        <v>0.69020000000000004</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>-7.5799999999999979E-2</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>0.20239999999999991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>'Model selection'!A39</f>
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <f>'Model selection'!D39</f>
+        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP</v>
+      </c>
+      <c r="C39">
+        <f>'Model selection'!E39</f>
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <f>'Model selection'!F39</f>
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="E39">
+        <f>'Model selection'!G39</f>
+        <v>0.82269999999999999</v>
+      </c>
+      <c r="F39">
+        <f>'Model selection'!H39</f>
+        <v>0.87990000000000002</v>
+      </c>
+      <c r="G39">
+        <f>'Model selection'!I39</f>
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>-8.4999999999999964E-2</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>-8.7999999999999967E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>'Model selection'!A40</f>
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <f>'Model selection'!D40</f>
+        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, ASP-SLP</v>
+      </c>
+      <c r="C40">
+        <f>'Model selection'!E40</f>
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <f>'Model selection'!F40</f>
+        <v>0.80069999999999997</v>
+      </c>
+      <c r="E40">
+        <f>'Model selection'!G40</f>
+        <v>0.82230000000000003</v>
+      </c>
+      <c r="F40">
+        <f>'Model selection'!H40</f>
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="G40" s="7">
+        <f>'Model selection'!I40</f>
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>-8.0500000000000016E-2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>-8.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>'Model selection'!A41</f>
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <f>'Model selection'!D41</f>
+        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP-SLP</v>
+      </c>
+      <c r="C41">
+        <f>'Model selection'!E41</f>
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <f>'Model selection'!F41</f>
+        <v>0.80030000000000001</v>
+      </c>
+      <c r="E41">
+        <f>'Model selection'!G41</f>
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="F41">
+        <f>'Model selection'!H41</f>
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="G41">
+        <f>'Model selection'!I41</f>
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>-7.7400000000000024E-2</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>-9.6799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>'Model selection'!A42</f>
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <f>'Model selection'!D42</f>
+        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
+      </c>
+      <c r="C42">
+        <f>'Model selection'!E42</f>
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <f>'Model selection'!F42</f>
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="E42">
+        <f>'Model selection'!G42</f>
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="F42">
+        <f>'Model selection'!H42</f>
+        <v>0.8851</v>
+      </c>
+      <c r="G42">
+        <f>'Model selection'!I42</f>
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>-6.2599999999999989E-2</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>6.8599999999999994E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>'Model selection'!A43</f>
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <f>'Model selection'!D43</f>
+        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
+      </c>
+      <c r="C43">
+        <f>'Model selection'!E43</f>
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <f>'Model selection'!F43</f>
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="E43">
+        <f>'Model selection'!G43</f>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="F43">
+        <f>'Model selection'!H43</f>
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="G43">
+        <f>'Model selection'!I43</f>
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>-5.2099999999999924E-2</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000058E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>'Model selection'!A44</f>
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <f>'Model selection'!D44</f>
+        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
+      </c>
+      <c r="C44">
+        <f>'Model selection'!E44</f>
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <f>'Model selection'!F44</f>
+        <v>0.82989999999999997</v>
+      </c>
+      <c r="E44">
+        <f>'Model selection'!G44</f>
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="F44">
+        <f>'Model selection'!H44</f>
+        <v>0.87780000000000002</v>
+      </c>
+      <c r="G44">
+        <f>'Model selection'!I44</f>
+        <v>0.80530000000000002</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>-4.7900000000000054E-2</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>8.0199999999999938E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>'Model selection'!A45</f>
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <f>'Model selection'!D45</f>
+        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C45">
+        <f>'Model selection'!E45</f>
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <f>'Model selection'!F45</f>
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="E45">
+        <f>'Model selection'!G45</f>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="F45">
+        <f>'Model selection'!H45</f>
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="G45">
+        <f>'Model selection'!I45</f>
+        <v>0.78369999999999995</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>-9.0799999999999992E-2</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>0.13330000000000009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>'Model selection'!A46</f>
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <f>'Model selection'!D46</f>
+        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C46">
+        <f>'Model selection'!E46</f>
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <f>'Model selection'!F46</f>
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="E46">
+        <f>'Model selection'!G46</f>
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="F46">
+        <f>'Model selection'!H46</f>
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="G46">
+        <f>'Model selection'!I46</f>
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>-8.0899999999999972E-2</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>0.13729999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>'Model selection'!A47</f>
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
+        <f>'Model selection'!D47</f>
+        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C47">
+        <f>'Model selection'!E47</f>
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E47">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="F47">
+        <f>'Model selection'!H47</f>
+        <v>0.93089999999999995</v>
+      </c>
+      <c r="G47">
+        <f>'Model selection'!I47</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>'Model selection'!A48</f>
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <f>'Model selection'!D48</f>
+        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, ASP-SLP, NGHTLGHT</v>
+      </c>
+      <c r="C48">
+        <f>'Model selection'!E48</f>
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <f>'Model selection'!F48</f>
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="E48">
+        <f>'Model selection'!G48</f>
+        <v>0.85870000000000002</v>
+      </c>
+      <c r="F48">
+        <f>'Model selection'!H48</f>
+        <v>0.95120000000000005</v>
+      </c>
+      <c r="G48">
+        <f>'Model selection'!I48</f>
+        <v>0.68620000000000003</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>-0.11480000000000001</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>0.17249999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>'Model selection'!A49</f>
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <f>'Model selection'!D49</f>
+        <v>RD-DIST, RD-DIR, DEM, ASP-SLP, NGHTLGHT</v>
+      </c>
+      <c r="C49">
+        <f>'Model selection'!E49</f>
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <f>'Model selection'!F49</f>
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="E49">
+        <f>'Model selection'!G49</f>
+        <v>0.83809999999999996</v>
+      </c>
+      <c r="F49">
+        <f>'Model selection'!H49</f>
+        <v>0.94969999999999999</v>
+      </c>
+      <c r="G49">
+        <f>'Model selection'!I49</f>
+        <v>0.65349999999999997</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>-0.11339999999999995</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>0.18459999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>'Model selection'!A50</f>
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <f>'Model selection'!D50</f>
+        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C50">
+        <f>'Model selection'!E50</f>
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <f>'Model selection'!F50</f>
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="E50" s="7">
+        <f>'Model selection'!G50</f>
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="F50">
+        <f>'Model selection'!H50</f>
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="G50">
+        <f>'Model selection'!I50</f>
+        <v>0.73229999999999995</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>-9.0799999999999992E-2</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>0.1856000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>'Model selection'!A51</f>
+        <v>50</v>
+      </c>
+      <c r="B51" t="str">
+        <f>'Model selection'!D51</f>
+        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C51">
+        <f>'Model selection'!E51</f>
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <f>'Model selection'!F51</f>
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="E51">
+        <f>'Model selection'!G51</f>
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="F51">
+        <f>'Model selection'!H51</f>
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="G51">
+        <f>'Model selection'!I51</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>-8.0899999999999972E-2</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>0.18800000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>'Model selection'!A52</f>
+        <v>51</v>
+      </c>
+      <c r="B52" t="str">
+        <f>'Model selection'!D52</f>
+        <v>RD-DIST, RD-DIR, DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C52">
+        <f>'Model selection'!E52</f>
+        <v>18</v>
+      </c>
+      <c r="D52">
+        <f>'Model selection'!F52</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E52">
+        <f>'Model selection'!G52</f>
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="F52">
+        <f>'Model selection'!H52</f>
+        <v>0.93089999999999995</v>
+      </c>
+      <c r="G52">
+        <f>'Model selection'!I52</f>
+        <v>0.69020000000000004</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>-7.5899999999999967E-2</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>0.20239999999999991</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>'Model selection'!A53</f>
+        <v>52</v>
+      </c>
+      <c r="B53" t="str">
+        <f>'Model selection'!D53</f>
+        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C53">
+        <f>'Model selection'!E53</f>
+        <v>19</v>
+      </c>
+      <c r="D53">
+        <f>'Model selection'!F53</f>
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="E53" s="7">
+        <f>'Model selection'!G53</f>
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="F53">
+        <f>'Model selection'!H53</f>
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="G53">
+        <f>'Model selection'!I53</f>
+        <v>0.73229999999999995</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>-9.0799999999999992E-2</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>0.1856000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>'Model selection'!A54</f>
+        <v>53</v>
+      </c>
+      <c r="B54" t="str">
+        <f>'Model selection'!D54</f>
+        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT, NGHTLGHT</v>
+      </c>
+      <c r="C54">
+        <f>'Model selection'!E54</f>
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <f>'Model selection'!F54</f>
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="E54">
+        <f>'Model selection'!G54</f>
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="F54">
+        <f>'Model selection'!H54</f>
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="G54">
+        <f>'Model selection'!I54</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>-8.0899999999999972E-2</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>0.18800000000000006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>'Model selection'!A55</f>
+        <v>54</v>
+      </c>
+      <c r="B55" t="str">
+        <f>'Model selection'!D55</f>
+        <v>RD-DIST, RD-DIR, DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT, NGHTLGHT</v>
+      </c>
+      <c r="C55">
+        <f>'Model selection'!E55</f>
+        <v>18</v>
+      </c>
+      <c r="D55">
+        <f>'Model selection'!F55</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E55">
+        <f>'Model selection'!G55</f>
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="F55">
+        <f>'Model selection'!H55</f>
+        <v>0.93089999999999995</v>
+      </c>
+      <c r="G55">
+        <f>'Model selection'!I55</f>
+        <v>0.69020000000000004</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>-7.5899999999999967E-2</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>0.20239999999999991</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>'Model selection'!A56</f>
+        <v>55</v>
+      </c>
+      <c r="B56" t="str">
+        <f>'Model selection'!D56</f>
+        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, NGHTLGHT</v>
+      </c>
+      <c r="C56">
+        <f>'Model selection'!E56</f>
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <f>'Model selection'!F56</f>
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="E56">
+        <f>'Model selection'!G56</f>
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="F56">
+        <f>'Model selection'!H56</f>
+        <v>0.9536</v>
+      </c>
+      <c r="G56">
+        <f>'Model selection'!I56</f>
+        <v>0.75819999999999999</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>-0.11809999999999998</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>0.10240000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>'Model selection'!A57</f>
+        <v>56</v>
+      </c>
+      <c r="B57" t="str">
+        <f>'Model selection'!D57</f>
+        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, ASP-SLP, NGHTLGHT</v>
+      </c>
+      <c r="C57">
+        <f>'Model selection'!E57</f>
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <f>'Model selection'!F57</f>
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="E57">
+        <f>'Model selection'!G57</f>
+        <v>0.85970000000000002</v>
+      </c>
+      <c r="F57">
+        <f>'Model selection'!H57</f>
+        <v>0.95120000000000005</v>
+      </c>
+      <c r="G57">
+        <f>'Model selection'!I57</f>
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>-0.11480000000000001</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>0.10609999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>'Model selection'!A58</f>
+        <v>57</v>
+      </c>
+      <c r="B58" t="str">
+        <f>'Model selection'!D58</f>
+        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP-SLP, NGHTLGHT</v>
+      </c>
+      <c r="C58">
+        <f>'Model selection'!E58</f>
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <f>'Model selection'!F58</f>
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="E58">
+        <f>'Model selection'!G58</f>
+        <v>0.84350000000000003</v>
+      </c>
+      <c r="F58">
+        <f>'Model selection'!H58</f>
+        <v>0.94969999999999999</v>
+      </c>
+      <c r="G58">
+        <f>'Model selection'!I58</f>
+        <v>0.72889999999999999</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>-0.11339999999999995</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>0.11460000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>'Model selection'!A59</f>
+        <v>58</v>
+      </c>
+      <c r="B59" t="str">
+        <f>'Model selection'!D59</f>
+        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C59">
+        <f>'Model selection'!E59</f>
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <f>'Model selection'!F59</f>
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="E59">
+        <f>'Model selection'!G59</f>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="F59">
+        <f>'Model selection'!H59</f>
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="G59">
+        <f>'Model selection'!I59</f>
+        <v>0.78369999999999995</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>-9.0799999999999992E-2</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>0.13330000000000009</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f>'Model selection'!A60</f>
+        <v>59</v>
+      </c>
+      <c r="B60" t="str">
+        <f>'Model selection'!D60</f>
+        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C60">
+        <f>'Model selection'!E60</f>
+        <v>18</v>
+      </c>
+      <c r="D60">
+        <f>'Model selection'!F60</f>
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="E60">
+        <f>'Model selection'!G60</f>
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="F60" s="6">
+        <f>'Model selection'!H60</f>
+        <v>0.9597</v>
+      </c>
+      <c r="G60">
+        <f>'Model selection'!I60</f>
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>-0.10980000000000001</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>0.13729999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>'Model selection'!A61</f>
+        <v>60</v>
+      </c>
+      <c r="B61" t="str">
+        <f>'Model selection'!D61</f>
+        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
+      </c>
+      <c r="C61">
+        <f>'Model selection'!E61</f>
+        <v>19</v>
+      </c>
+      <c r="D61">
+        <f>'Model selection'!F61</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E61">
+        <f>'Model selection'!G61</f>
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="F61">
+        <f>'Model selection'!H61</f>
+        <v>0.93089999999999995</v>
+      </c>
+      <c r="G61">
+        <f>'Model selection'!I61</f>
+        <v>0.75</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>-7.5899999999999967E-2</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>0.14510000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>'Model selection'!A62</f>
+        <v>61</v>
+      </c>
+      <c r="B62" t="str">
+        <f>'Model selection'!D62</f>
+        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT, NGHTLGHT</v>
+      </c>
+      <c r="C62">
+        <f>'Model selection'!E62</f>
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <f>'Model selection'!F62</f>
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="E62">
+        <f>'Model selection'!G62</f>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="F62">
+        <f>'Model selection'!H62</f>
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="G62">
+        <f>'Model selection'!I62</f>
+        <v>0.78369999999999995</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>-9.0799999999999992E-2</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>0.13330000000000009</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>'Model selection'!A63</f>
+        <v>62</v>
+      </c>
+      <c r="B63" t="str">
+        <f>'Model selection'!D63</f>
+        <v>Everything1</v>
+      </c>
+      <c r="C63">
+        <f>'Model selection'!E63</f>
+        <v>21</v>
+      </c>
+      <c r="D63">
+        <f>'Model selection'!F63</f>
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="E63">
+        <f>'Model selection'!G63</f>
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="F63">
+        <f>'Model selection'!H63</f>
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="G63">
+        <f>'Model selection'!I63</f>
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>-8.0899999999999972E-2</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>0.13729999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>'Model selection'!A64</f>
+        <v>63</v>
+      </c>
+      <c r="B64" t="str">
+        <f>'Model selection'!D64</f>
+        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT, NGHTLGHT</v>
+      </c>
+      <c r="C64">
+        <f>'Model selection'!E64</f>
+        <v>19</v>
+      </c>
+      <c r="D64">
+        <f>'Model selection'!F64</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E64">
+        <f>'Model selection'!G64</f>
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="F64">
+        <f>'Model selection'!H64</f>
+        <v>0.93089999999999995</v>
+      </c>
+      <c r="G64">
+        <f>'Model selection'!I64</f>
+        <v>0.75</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>-7.5899999999999967E-2</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>0.14510000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="top10" dxfId="3" priority="4" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="top10" dxfId="2" priority="3" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="top10" dxfId="1" priority="2" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="top10" dxfId="0" priority="1" rank="10"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" high="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D2:I2</xm:f>
+              <xm:sqref>J2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D3:I3</xm:f>
+              <xm:sqref>J3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D4:I4</xm:f>
+              <xm:sqref>J4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D5:I5</xm:f>
+              <xm:sqref>J5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D6:I6</xm:f>
+              <xm:sqref>J6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D7:I7</xm:f>
+              <xm:sqref>J7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D8:I8</xm:f>
+              <xm:sqref>J8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D9:I9</xm:f>
+              <xm:sqref>J9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D10:I10</xm:f>
+              <xm:sqref>J10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D11:I11</xm:f>
+              <xm:sqref>J11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D12:I12</xm:f>
+              <xm:sqref>J12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D13:I13</xm:f>
+              <xm:sqref>J13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D14:I14</xm:f>
+              <xm:sqref>J14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D15:I15</xm:f>
+              <xm:sqref>J15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D16:I16</xm:f>
+              <xm:sqref>J16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D17:I17</xm:f>
+              <xm:sqref>J17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D18:I18</xm:f>
+              <xm:sqref>J18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D19:I19</xm:f>
+              <xm:sqref>J19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D20:I20</xm:f>
+              <xm:sqref>J20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D21:I21</xm:f>
+              <xm:sqref>J21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D22:I22</xm:f>
+              <xm:sqref>J22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D23:I23</xm:f>
+              <xm:sqref>J23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D24:I24</xm:f>
+              <xm:sqref>J24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D25:I25</xm:f>
+              <xm:sqref>J25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D26:I26</xm:f>
+              <xm:sqref>J26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D27:I27</xm:f>
+              <xm:sqref>J27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D28:I28</xm:f>
+              <xm:sqref>J28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D29:I29</xm:f>
+              <xm:sqref>J29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D30:I30</xm:f>
+              <xm:sqref>J30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D31:I31</xm:f>
+              <xm:sqref>J31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D32:I32</xm:f>
+              <xm:sqref>J32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D33:I33</xm:f>
+              <xm:sqref>J33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D34:I34</xm:f>
+              <xm:sqref>J34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D35:I35</xm:f>
+              <xm:sqref>J35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D36:I36</xm:f>
+              <xm:sqref>J36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D37:I37</xm:f>
+              <xm:sqref>J37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D38:I38</xm:f>
+              <xm:sqref>J38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D39:I39</xm:f>
+              <xm:sqref>J39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D40:I40</xm:f>
+              <xm:sqref>J40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D41:I41</xm:f>
+              <xm:sqref>J41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D42:I42</xm:f>
+              <xm:sqref>J42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D43:I43</xm:f>
+              <xm:sqref>J43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D44:I44</xm:f>
+              <xm:sqref>J44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D45:I45</xm:f>
+              <xm:sqref>J45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D46:I46</xm:f>
+              <xm:sqref>J46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D47:I47</xm:f>
+              <xm:sqref>J47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D48:I48</xm:f>
+              <xm:sqref>J48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D49:I49</xm:f>
+              <xm:sqref>J49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D50:I50</xm:f>
+              <xm:sqref>J50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D51:I51</xm:f>
+              <xm:sqref>J51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D52:I52</xm:f>
+              <xm:sqref>J52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D53:I53</xm:f>
+              <xm:sqref>J53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D54:I54</xm:f>
+              <xm:sqref>J54</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D55:I55</xm:f>
+              <xm:sqref>J55</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D56:I56</xm:f>
+              <xm:sqref>J56</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D57:I57</xm:f>
+              <xm:sqref>J57</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D58:I58</xm:f>
+              <xm:sqref>J58</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D59:I59</xm:f>
+              <xm:sqref>J59</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D60:I60</xm:f>
+              <xm:sqref>J60</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D61:I61</xm:f>
+              <xm:sqref>J61</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D62:I62</xm:f>
+              <xm:sqref>J62</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D63:I63</xm:f>
+              <xm:sqref>J63</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Model selection-product'!D64:I64</xm:f>
+              <xm:sqref>J64</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f>'Model selection'!A1</f>
-        <v>Model name</v>
-      </c>
-      <c r="B1" t="str">
-        <f>'Model selection'!D1</f>
-        <v>Description</v>
-      </c>
-      <c r="C1" t="str">
-        <f>'Model selection'!E1</f>
-        <v>Number of factors</v>
-      </c>
-      <c r="D1" t="str">
-        <f>'Model selection'!H1</f>
-        <v>DEA</v>
-      </c>
-      <c r="E1" t="str">
-        <f>'Model selection'!F1</f>
-        <v>DRA</v>
+      <c r="A1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>'Model selection'!A2</f>
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'Model selection'!D2</f>
-        <v>Landsat raw</v>
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2">
+        <v>0.27014890062830599</v>
       </c>
       <c r="C2">
-        <f>'Model selection'!E2</f>
-        <v>3</v>
-      </c>
-      <c r="D2" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E2" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
+        <v>0.80653984201442497</v>
+      </c>
+      <c r="D2">
+        <v>0.60028751748226528</v>
+      </c>
+      <c r="E2">
+        <v>0.89700209478535498</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>'Model selection'!A3</f>
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <f>'Model selection'!D3</f>
-        <v>Landsat, NDVI</v>
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3">
+        <v>0.32189404860720999</v>
       </c>
       <c r="C3">
-        <f>'Model selection'!E3</f>
-        <v>4</v>
-      </c>
-      <c r="D3" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E3" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f>'Model selection'!A4</f>
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <f>'Model selection'!D4</f>
-        <v>NDVI, ALB, MSR, RNDVI</v>
+        <v>0.85221852894497296</v>
+      </c>
+      <c r="D3">
+        <v>0.61110122444065906</v>
+      </c>
+      <c r="E3">
+        <v>0.93412804806432304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="8">
+        <v>3.1293000000000002</v>
+      </c>
+      <c r="D2">
+        <v>61</v>
+      </c>
+      <c r="E2">
+        <v>2.6879999999999999E-3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2">
+        <v>3.8536999999999999</v>
+      </c>
+      <c r="H2">
+        <v>1.1629999999999999E-4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3">
+        <v>9.3064999999999998</v>
+      </c>
+      <c r="D3">
+        <v>61</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2.5889999999999999E-13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3">
+        <v>6.9722999999999997</v>
+      </c>
+      <c r="H3" s="9">
+        <v>3.1179999999999998E-12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
       </c>
       <c r="C4">
-        <f>'Model selection'!E4</f>
-        <v>4</v>
-      </c>
-      <c r="D4" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E4" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f>'Model selection'!A5</f>
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <f>'Model selection'!D5</f>
-        <v>Landsat, NDVI, ALB, MSR, RNDVI</v>
+        <v>0.62853999999999999</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="F4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4">
+        <v>1.1847000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.2361</v>
+      </c>
+      <c r="I4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
       </c>
       <c r="C5">
-        <f>'Model selection'!E5</f>
-        <v>7</v>
-      </c>
-      <c r="D5" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E5" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f>'Model selection'!A6</f>
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <f>'Model selection'!D6</f>
-        <v>Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW</v>
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="D5">
+        <v>61</v>
+      </c>
+      <c r="E5">
+        <v>7.4440000000000006E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5">
+        <v>2.2883</v>
+      </c>
+      <c r="H5">
+        <v>2.2120000000000001E-2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
       </c>
       <c r="C6">
-        <f>'Model selection'!E6</f>
-        <v>10</v>
-      </c>
-      <c r="D6" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>'Model selection'!A7</f>
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <f>'Model selection'!D7</f>
-        <v>Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
+        <v>13.875999999999999</v>
+      </c>
+      <c r="D6">
+        <v>61</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2.2E-16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6">
+        <v>8.5870999999999995</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2.2E-16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
       </c>
       <c r="C7">
-        <f>'Model selection'!E7</f>
-        <v>13</v>
-      </c>
-      <c r="D7" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f>'Model selection'!A8</f>
-        <v>7</v>
-      </c>
-      <c r="B8" t="str">
-        <f>'Model selection'!D8</f>
-        <v>TCT-BGW</v>
-      </c>
-      <c r="C8">
-        <f>'Model selection'!E8</f>
-        <v>3</v>
-      </c>
-      <c r="D8" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E8" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>'Model selection'!A9</f>
-        <v>8</v>
-      </c>
-      <c r="B9" t="str">
-        <f>'Model selection'!D9</f>
-        <v>TCT-BGW, TCT 123</v>
-      </c>
-      <c r="C9">
-        <f>'Model selection'!E9</f>
-        <v>6</v>
-      </c>
-      <c r="D9" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f>'Model selection'!A10</f>
-        <v>9</v>
-      </c>
-      <c r="B10" t="str">
-        <f>'Model selection'!D10</f>
-        <v>Landsat, TCT-BGW, TCT 123</v>
-      </c>
-      <c r="C10">
-        <f>'Model selection'!E10</f>
-        <v>3</v>
-      </c>
-      <c r="D10" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>'Model selection'!A11</f>
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
-        <f>'Model selection'!D11</f>
-        <v>Landsat, NDVI, NGHTLGHT</v>
-      </c>
-      <c r="C11">
-        <f>'Model selection'!E11</f>
-        <v>5</v>
-      </c>
-      <c r="D11" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>'Model selection'!A12</f>
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
-        <f>'Model selection'!D12</f>
-        <v>NDVI, ALB, MSR, RNDVI, NGHTLGHT</v>
-      </c>
-      <c r="C12">
-        <f>'Model selection'!E12</f>
-        <v>5</v>
-      </c>
-      <c r="D12" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>'Model selection'!A13</f>
-        <v>12</v>
-      </c>
-      <c r="B13" t="str">
-        <f>'Model selection'!D13</f>
-        <v>Landsat, NDVI, ALB, MSR, RNDVI, NGHTLGHT</v>
-      </c>
-      <c r="C13">
-        <f>'Model selection'!E13</f>
-        <v>8</v>
-      </c>
-      <c r="D13" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f>'Model selection'!A14</f>
-        <v>13</v>
-      </c>
-      <c r="B14" t="str">
-        <f>'Model selection'!D14</f>
-        <v>Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, NGHTLGHT</v>
-      </c>
-      <c r="C14">
-        <f>'Model selection'!E14</f>
-        <v>11</v>
-      </c>
-      <c r="D14" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E14" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>'Model selection'!A15</f>
-        <v>14</v>
-      </c>
-      <c r="B15" t="str">
-        <f>'Model selection'!D15</f>
-        <v>Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C15">
-        <f>'Model selection'!E15</f>
-        <v>14</v>
-      </c>
-      <c r="D15" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f>'Model selection'!A16</f>
-        <v>15</v>
-      </c>
-      <c r="B16" t="str">
-        <f>'Model selection'!D16</f>
-        <v>TCT-BGW, NGHTLGHT</v>
-      </c>
-      <c r="C16">
-        <f>'Model selection'!E16</f>
-        <v>4</v>
-      </c>
-      <c r="D16" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>'Model selection'!A17</f>
-        <v>16</v>
-      </c>
-      <c r="B17" t="str">
-        <f>'Model selection'!D17</f>
-        <v>TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C17">
-        <f>'Model selection'!E17</f>
-        <v>7</v>
-      </c>
-      <c r="D17" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E17" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f>'Model selection'!A18</f>
-        <v>17</v>
-      </c>
-      <c r="B18" t="str">
-        <f>'Model selection'!D18</f>
-        <v>Landsat, TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C18">
-        <f>'Model selection'!E18</f>
-        <v>10</v>
-      </c>
-      <c r="D18" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E18" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f>'Model selection'!A19</f>
-        <v>18</v>
-      </c>
-      <c r="B19" t="str">
-        <f>'Model selection'!D19</f>
-        <v>DEM, ASP, SLP</v>
-      </c>
-      <c r="C19">
-        <f>'Model selection'!E19</f>
-        <v>3</v>
-      </c>
-      <c r="D19" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E19" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f>'Model selection'!A20</f>
-        <v>19</v>
-      </c>
-      <c r="B20" t="str">
-        <f>'Model selection'!D20</f>
-        <v>DEM, ASP, SLP, ASP-SLP</v>
-      </c>
-      <c r="C20">
-        <f>'Model selection'!E20</f>
-        <v>4</v>
-      </c>
-      <c r="D20" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E20" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f>'Model selection'!A21</f>
-        <v>20</v>
-      </c>
-      <c r="B21" t="str">
-        <f>'Model selection'!D21</f>
-        <v>DEM, ASP-SLP</v>
-      </c>
-      <c r="C21">
-        <f>'Model selection'!E21</f>
-        <v>2</v>
-      </c>
-      <c r="D21" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E21" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>'Model selection'!A22</f>
-        <v>21</v>
-      </c>
-      <c r="B22" t="str">
-        <f>'Model selection'!D22</f>
-        <v>DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
-      </c>
-      <c r="C22">
-        <f>'Model selection'!E22</f>
-        <v>16</v>
-      </c>
-      <c r="D22" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E22" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f>'Model selection'!A23</f>
-        <v>22</v>
-      </c>
-      <c r="B23" t="str">
-        <f>'Model selection'!D23</f>
-        <v>DEM, ASP, SLP, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
-      </c>
-      <c r="C23">
-        <f>'Model selection'!E23</f>
-        <v>17</v>
-      </c>
-      <c r="D23" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E23" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f>'Model selection'!A24</f>
-        <v>23</v>
-      </c>
-      <c r="B24" t="str">
-        <f>'Model selection'!D24</f>
-        <v>DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
-      </c>
-      <c r="C24">
-        <f>'Model selection'!E24</f>
-        <v>15</v>
-      </c>
-      <c r="D24" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E24" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f>'Model selection'!A25</f>
-        <v>24</v>
-      </c>
-      <c r="B25" t="str">
-        <f>'Model selection'!D25</f>
-        <v>DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C25">
-        <f>'Model selection'!E25</f>
-        <v>17</v>
-      </c>
-      <c r="D25" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E25" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f>'Model selection'!A26</f>
-        <v>25</v>
-      </c>
-      <c r="B26" t="str">
-        <f>'Model selection'!D26</f>
-        <v>DEM, ASP, SLP, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C26">
-        <f>'Model selection'!E26</f>
-        <v>18</v>
-      </c>
-      <c r="D26" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E26" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f>'Model selection'!A27</f>
-        <v>26</v>
-      </c>
-      <c r="B27" t="str">
-        <f>'Model selection'!D27</f>
-        <v>DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C27">
-        <f>'Model selection'!E27</f>
-        <v>16</v>
-      </c>
-      <c r="D27" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E27" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f>'Model selection'!A28</f>
-        <v>27</v>
-      </c>
-      <c r="B28" t="str">
-        <f>'Model selection'!D28</f>
-        <v>RD-DIST, RD-DIR</v>
-      </c>
-      <c r="C28">
-        <f>'Model selection'!E28</f>
-        <v>2</v>
-      </c>
-      <c r="D28" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E28" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f>'Model selection'!A29</f>
-        <v>28</v>
-      </c>
-      <c r="B29" t="str">
-        <f>'Model selection'!D29</f>
-        <v>RD-DIST, RD-DIR, RESIST</v>
-      </c>
-      <c r="C29">
-        <f>'Model selection'!E29</f>
-        <v>3</v>
-      </c>
-      <c r="D29" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E29" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f>'Model selection'!A30</f>
-        <v>29</v>
-      </c>
-      <c r="B30" t="str">
-        <f>'Model selection'!D30</f>
-        <v>RD-DIST, RD-DIR, DEM, ASP, SLP</v>
-      </c>
-      <c r="C30">
-        <f>'Model selection'!E30</f>
-        <v>5</v>
-      </c>
-      <c r="D30" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E30" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f>'Model selection'!A31</f>
-        <v>30</v>
-      </c>
-      <c r="B31" t="str">
-        <f>'Model selection'!D31</f>
-        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, ASP-SLP</v>
-      </c>
-      <c r="C31">
-        <f>'Model selection'!E31</f>
-        <v>6</v>
-      </c>
-      <c r="D31" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E31" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f>'Model selection'!A32</f>
-        <v>31</v>
-      </c>
-      <c r="B32" t="str">
-        <f>'Model selection'!D32</f>
-        <v>RD-DIST, RD-DIR, DEM, ASP-SLP</v>
-      </c>
-      <c r="C32">
-        <f>'Model selection'!E32</f>
-        <v>4</v>
-      </c>
-      <c r="D32" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E32" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f>'Model selection'!A33</f>
-        <v>32</v>
-      </c>
-      <c r="B33" t="str">
-        <f>'Model selection'!D33</f>
-        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
-      </c>
-      <c r="C33">
-        <f>'Model selection'!E33</f>
-        <v>18</v>
-      </c>
-      <c r="D33" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E33" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f>'Model selection'!A34</f>
-        <v>33</v>
-      </c>
-      <c r="B34" t="str">
-        <f>'Model selection'!D34</f>
-        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
-      </c>
-      <c r="C34">
-        <f>'Model selection'!E34</f>
-        <v>19</v>
-      </c>
-      <c r="D34" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E34" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f>'Model selection'!A35</f>
-        <v>34</v>
-      </c>
-      <c r="B35" t="str">
-        <f>'Model selection'!D35</f>
-        <v>RD-DIST, RD-DIR, DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
-      </c>
-      <c r="C35">
-        <f>'Model selection'!E35</f>
-        <v>17</v>
-      </c>
-      <c r="D35" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E35" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f>'Model selection'!A36</f>
-        <v>35</v>
-      </c>
-      <c r="B36" t="str">
-        <f>'Model selection'!D36</f>
-        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C36">
-        <f>'Model selection'!E36</f>
-        <v>19</v>
-      </c>
-      <c r="D36" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E36" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f>'Model selection'!A37</f>
-        <v>36</v>
-      </c>
-      <c r="B37" t="str">
-        <f>'Model selection'!D37</f>
-        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C37">
-        <f>'Model selection'!E37</f>
-        <v>20</v>
-      </c>
-      <c r="D37" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E37" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f>'Model selection'!A38</f>
-        <v>37</v>
-      </c>
-      <c r="B38" t="str">
-        <f>'Model selection'!D38</f>
-        <v>RD-DIST, RD-DIR, DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C38">
-        <f>'Model selection'!E38</f>
-        <v>18</v>
-      </c>
-      <c r="D38" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E38" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f>'Model selection'!A39</f>
-        <v>38</v>
-      </c>
-      <c r="B39" t="str">
-        <f>'Model selection'!D39</f>
-        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP</v>
-      </c>
-      <c r="C39">
-        <f>'Model selection'!E39</f>
-        <v>6</v>
-      </c>
-      <c r="D39" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E39" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f>'Model selection'!A40</f>
-        <v>39</v>
-      </c>
-      <c r="B40" t="str">
-        <f>'Model selection'!D40</f>
-        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, ASP-SLP</v>
-      </c>
-      <c r="C40">
-        <f>'Model selection'!E40</f>
-        <v>7</v>
-      </c>
-      <c r="D40" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E40" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f>'Model selection'!A41</f>
-        <v>40</v>
-      </c>
-      <c r="B41" t="str">
-        <f>'Model selection'!D41</f>
-        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP-SLP</v>
-      </c>
-      <c r="C41">
-        <f>'Model selection'!E41</f>
-        <v>5</v>
-      </c>
-      <c r="D41" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E41" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f>'Model selection'!A42</f>
-        <v>41</v>
-      </c>
-      <c r="B42" t="str">
-        <f>'Model selection'!D42</f>
-        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
-      </c>
-      <c r="C42">
-        <f>'Model selection'!E42</f>
-        <v>19</v>
-      </c>
-      <c r="D42" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E42" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f>'Model selection'!A43</f>
-        <v>42</v>
-      </c>
-      <c r="B43" t="str">
-        <f>'Model selection'!D43</f>
-        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
-      </c>
-      <c r="C43">
-        <f>'Model selection'!E43</f>
-        <v>20</v>
-      </c>
-      <c r="D43" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E43" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f>'Model selection'!A44</f>
-        <v>43</v>
-      </c>
-      <c r="B44" t="str">
-        <f>'Model selection'!D44</f>
-        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123</v>
-      </c>
-      <c r="C44">
-        <f>'Model selection'!E44</f>
-        <v>18</v>
-      </c>
-      <c r="D44" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E44" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f>'Model selection'!A45</f>
-        <v>44</v>
-      </c>
-      <c r="B45" t="str">
-        <f>'Model selection'!D45</f>
-        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C45">
-        <f>'Model selection'!E45</f>
-        <v>20</v>
-      </c>
-      <c r="D45" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E45" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f>'Model selection'!A46</f>
-        <v>45</v>
-      </c>
-      <c r="B46" t="str">
-        <f>'Model selection'!D46</f>
-        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C46">
-        <f>'Model selection'!E46</f>
-        <v>21</v>
-      </c>
-      <c r="D46" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E46" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f>'Model selection'!A47</f>
-        <v>46</v>
-      </c>
-      <c r="B47" t="str">
-        <f>'Model selection'!D47</f>
-        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C47">
-        <f>'Model selection'!E47</f>
-        <v>19</v>
-      </c>
-      <c r="D47" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E47" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f>'Model selection'!A48</f>
-        <v>47</v>
-      </c>
-      <c r="B48" t="str">
-        <f>'Model selection'!D48</f>
-        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, ASP-SLP, NGHTLGHT</v>
-      </c>
-      <c r="C48">
-        <f>'Model selection'!E48</f>
-        <v>7</v>
-      </c>
-      <c r="D48" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E48" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f>'Model selection'!A49</f>
-        <v>48</v>
-      </c>
-      <c r="B49" t="str">
-        <f>'Model selection'!D49</f>
-        <v>RD-DIST, RD-DIR, DEM, ASP-SLP, NGHTLGHT</v>
-      </c>
-      <c r="C49">
-        <f>'Model selection'!E49</f>
-        <v>5</v>
-      </c>
-      <c r="D49" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E49" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f>'Model selection'!A50</f>
-        <v>49</v>
-      </c>
-      <c r="B50" t="str">
-        <f>'Model selection'!D50</f>
-        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C50">
-        <f>'Model selection'!E50</f>
-        <v>19</v>
-      </c>
-      <c r="D50" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E50" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f>'Model selection'!A51</f>
-        <v>50</v>
-      </c>
-      <c r="B51" t="str">
-        <f>'Model selection'!D51</f>
-        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C51">
-        <f>'Model selection'!E51</f>
-        <v>20</v>
-      </c>
-      <c r="D51" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E51" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f>'Model selection'!A52</f>
-        <v>51</v>
-      </c>
-      <c r="B52" t="str">
-        <f>'Model selection'!D52</f>
-        <v>RD-DIST, RD-DIR, DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C52">
-        <f>'Model selection'!E52</f>
-        <v>18</v>
-      </c>
-      <c r="D52" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E52" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f>'Model selection'!A53</f>
-        <v>52</v>
-      </c>
-      <c r="B53" t="str">
-        <f>'Model selection'!D53</f>
-        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C53">
-        <f>'Model selection'!E53</f>
-        <v>19</v>
-      </c>
-      <c r="D53" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E53" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f>'Model selection'!A54</f>
-        <v>53</v>
-      </c>
-      <c r="B54" t="str">
-        <f>'Model selection'!D54</f>
-        <v>RD-DIST, RD-DIR, DEM, ASP, SLP, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT, NGHTLGHT</v>
-      </c>
-      <c r="C54">
-        <f>'Model selection'!E54</f>
-        <v>20</v>
-      </c>
-      <c r="D54" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E54" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <f>'Model selection'!A55</f>
-        <v>54</v>
-      </c>
-      <c r="B55" t="str">
-        <f>'Model selection'!D55</f>
-        <v>RD-DIST, RD-DIR, DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT, NGHTLGHT</v>
-      </c>
-      <c r="C55">
-        <f>'Model selection'!E55</f>
-        <v>18</v>
-      </c>
-      <c r="D55" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E55" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f>'Model selection'!A56</f>
-        <v>55</v>
-      </c>
-      <c r="B56" t="str">
-        <f>'Model selection'!D56</f>
-        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, NGHTLGHT</v>
-      </c>
-      <c r="C56">
-        <f>'Model selection'!E56</f>
-        <v>7</v>
-      </c>
-      <c r="D56" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f>'Model selection'!A57</f>
-        <v>56</v>
-      </c>
-      <c r="B57" t="str">
-        <f>'Model selection'!D57</f>
-        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, ASP-SLP, NGHTLGHT</v>
-      </c>
-      <c r="C57">
-        <f>'Model selection'!E57</f>
-        <v>8</v>
-      </c>
-      <c r="D57" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E57" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f>'Model selection'!A58</f>
-        <v>57</v>
-      </c>
-      <c r="B58" t="str">
-        <f>'Model selection'!D58</f>
-        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP-SLP, NGHTLGHT</v>
-      </c>
-      <c r="C58">
-        <f>'Model selection'!E58</f>
-        <v>6</v>
-      </c>
-      <c r="D58" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E58" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f>'Model selection'!A59</f>
-        <v>58</v>
-      </c>
-      <c r="B59" t="str">
-        <f>'Model selection'!D59</f>
-        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C59">
-        <f>'Model selection'!E59</f>
-        <v>20</v>
-      </c>
-      <c r="D59" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E59" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f>'Model selection'!A60</f>
-        <v>59</v>
-      </c>
-      <c r="B60" t="str">
-        <f>'Model selection'!D60</f>
-        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C60">
-        <f>'Model selection'!E60</f>
-        <v>18</v>
-      </c>
-      <c r="D60" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E60" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <f>'Model selection'!A61</f>
+        <v>1.2369000000000001</v>
+      </c>
+      <c r="D7">
         <v>60</v>
       </c>
-      <c r="B61" t="str">
-        <f>'Model selection'!D61</f>
-        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT</v>
-      </c>
-      <c r="C61">
-        <f>'Model selection'!E61</f>
-        <v>19</v>
-      </c>
-      <c r="D61" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E61" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <f>'Model selection'!A62</f>
-        <v>61</v>
-      </c>
-      <c r="B62" t="str">
-        <f>'Model selection'!D62</f>
-        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP, SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT, NGHTLGHT</v>
-      </c>
-      <c r="C62">
-        <f>'Model selection'!E62</f>
-        <v>20</v>
-      </c>
-      <c r="D62" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E62" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <f>'Model selection'!A63</f>
-        <v>62</v>
-      </c>
-      <c r="B63" t="str">
-        <f>'Model selection'!D63</f>
-        <v>Everything1</v>
-      </c>
-      <c r="C63">
-        <f>'Model selection'!E63</f>
-        <v>21</v>
-      </c>
-      <c r="D63" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E63" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <f>'Model selection'!A64</f>
-        <v>63</v>
-      </c>
-      <c r="B64" t="str">
-        <f>'Model selection'!D64</f>
-        <v>RD-DIST, RD-DIR, RESIST, DEM, ASP-SLP, Landsat, NDVI, ALB, MSR, RNDVI, TCT-BGW, TCT 123, NGHTLGHT, NGHTLGHT</v>
-      </c>
-      <c r="C64">
-        <f>'Model selection'!E64</f>
-        <v>19</v>
-      </c>
-      <c r="D64" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E64" t="e">
-        <f>'Model selection'!#REF!</f>
-        <v>#REF!</v>
+      <c r="E7">
+        <v>0.22090000000000001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7">
+        <v>-0.19525000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="I7" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/Charts20160405.xlsx
+++ b/Charts20160405.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7740" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7740" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Environmental variables" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,13 @@
     <sheet name="Model selection" sheetId="2" r:id="rId4"/>
     <sheet name="Model selection-product" sheetId="5" r:id="rId5"/>
     <sheet name="H1 suitability" sheetId="9" r:id="rId6"/>
-    <sheet name="Significance" sheetId="8" r:id="rId7"/>
+    <sheet name="Slope-Aspect" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="13" r:id="rId9"/>
+    <sheet name="Significance" sheetId="8" r:id="rId10"/>
+    <sheet name="OLI bands" sheetId="15" r:id="rId11"/>
+    <sheet name="VegIndices" sheetId="16" r:id="rId12"/>
+    <sheet name="Steps" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -136,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="317">
   <si>
     <t>Layer</t>
   </si>
@@ -700,6 +706,415 @@
   </si>
   <si>
     <t>Range overlap at lowest in H1</t>
+  </si>
+  <si>
+    <t>Recalculated value</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Scene ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>LC81290452015052LGN00</t>
+  </si>
+  <si>
+    <t>LC81300442015075LGN00</t>
+  </si>
+  <si>
+    <t>LC81300452015075LGN00</t>
+  </si>
+  <si>
+    <t>LC81310442015066LGN00</t>
+  </si>
+  <si>
+    <t>LC81310452015066LGN00</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Abreviation</t>
+  </si>
+  <si>
+    <t>Landsat 8</t>
+  </si>
+  <si>
+    <t>LS8</t>
+  </si>
+  <si>
+    <t>Operational Land Imager</t>
+  </si>
+  <si>
+    <t>OLI</t>
+  </si>
+  <si>
+    <t>Thermal Infrared Sensor</t>
+  </si>
+  <si>
+    <t>TIRS</t>
+  </si>
+  <si>
+    <t>Thing</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>Download Landsat8 tiles</t>
+  </si>
+  <si>
+    <t>Took out Bands 4 and 5</t>
+  </si>
+  <si>
+    <t>Calculated NDVI with Image Analysis tool</t>
+  </si>
+  <si>
+    <t>ArcGIS&gt;Window&gt;ImageAnalysis</t>
+  </si>
+  <si>
+    <t>NDVI is calculated first so there are no seems</t>
+  </si>
+  <si>
+    <t>Export each layer</t>
+  </si>
+  <si>
+    <t>Mosaic with ERDAS</t>
+  </si>
+  <si>
+    <t>Band 6</t>
+  </si>
+  <si>
+    <t>Clip to bounds</t>
+  </si>
+  <si>
+    <t>ArcToobox.DatamgmtTools.Raster.RasterProcessing.Clip</t>
+  </si>
+  <si>
+    <t>Set data frame to WGS1984</t>
+  </si>
+  <si>
+    <t>Export raster data</t>
+  </si>
+  <si>
+    <t>Spatial reference = data frame</t>
+  </si>
+  <si>
+    <t>Raster to ASCII</t>
+  </si>
+  <si>
+    <t>ConversionTools&gt;FromRaster&gt;RasterToASCII</t>
+  </si>
+  <si>
+    <t>Try 2</t>
+  </si>
+  <si>
+    <t>Mosaic with ERDAS 2015</t>
+  </si>
+  <si>
+    <t>Convert to WGS1984</t>
+  </si>
+  <si>
+    <t>Calculate NDVI</t>
+  </si>
+  <si>
+    <t>Image Analysis Window</t>
+  </si>
+  <si>
+    <t>Export to ASCII</t>
+  </si>
+  <si>
+    <t>AcrToolbox&gt;ConversionTools&gt;FromRaster&gt;RasterToASCII</t>
+  </si>
+  <si>
+    <t>Band 5</t>
+  </si>
+  <si>
+    <t>D:\bsu017\Start\Clipped\B5\B5_C_1</t>
+  </si>
+  <si>
+    <t>D:\bsu017\Start\ACSII\B5.ASC</t>
+  </si>
+  <si>
+    <t>Band 4</t>
+  </si>
+  <si>
+    <t>D:\bsu017\Start\Clipped\B4\b4_c_1</t>
+  </si>
+  <si>
+    <t>D:\bsu017\Start\ACSII\B4.ASC</t>
+  </si>
+  <si>
+    <t>Get ASTER tiles</t>
+  </si>
+  <si>
+    <t>D:\bsu017\Start\Clipped\DEM\DEM_C_2</t>
+  </si>
+  <si>
+    <t>Calculate Aspect</t>
+  </si>
+  <si>
+    <t>ArcToolbox&gt;SpatialAnalystTools&gt;Surface&gt;Aspect</t>
+  </si>
+  <si>
+    <t>D:\bsu017\Start\Clipped\Aspect\aspect</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Calculate Slope - Percent rise and Z factor of 1</t>
+  </si>
+  <si>
+    <t>ArcToolbox&gt;SpatialAnalystTools&gt;Surface&gt;Slope</t>
+  </si>
+  <si>
+    <t>D:\bsu017\Start\Clipped\slope\slope</t>
+  </si>
+  <si>
+    <t>Contor 10m</t>
+  </si>
+  <si>
+    <t>Calculate contors</t>
+  </si>
+  <si>
+    <t>ArcToolbox&gt;SpatialAnalystTools&gt;Surface&gt;Contour</t>
+  </si>
+  <si>
+    <t>D:\bsu017\Start\Clipped\Contour\10m\con_10m.shp</t>
+  </si>
+  <si>
+    <t>Contor 30m</t>
+  </si>
+  <si>
+    <t>D:\bsu017\Start\Clipped\Contour\30m\con_30m.shp</t>
+  </si>
+  <si>
+    <t>Contor 50m</t>
+  </si>
+  <si>
+    <t>D:\bsu017\Start\Clipped\Contour\50m\con_50m.shp</t>
+  </si>
+  <si>
+    <t>Contor 100m</t>
+  </si>
+  <si>
+    <t>D:\bsu017\Start\Clipped\Contour\100m\con_100m.shp</t>
+  </si>
+  <si>
+    <t>Calculate distance to roads</t>
+  </si>
+  <si>
+    <t>ArcToolbox&gt;SpatialAnalystTools&gt;Distance&gt;EuclideanDistance</t>
+  </si>
+  <si>
+    <t>D:\bsu017\Start\Mosaic\Roads\EucDist\rds_ed_8</t>
+  </si>
+  <si>
+    <t>Environments&gt;change everything possible to be the same as ndvi.asc</t>
+  </si>
+  <si>
+    <t>Direction to roads</t>
+  </si>
+  <si>
+    <t>Calculate direction to roads</t>
+  </si>
+  <si>
+    <t>ArcToolbox&gt;SpatialAnalystTools&gt;Distance&gt;EuclideanDirection</t>
+  </si>
+  <si>
+    <t>D:\bsu017\Start\Mosaic\Roads\EucDir\rds_edir_1</t>
+  </si>
+  <si>
+    <t>Cost distance to roads-slope</t>
+  </si>
+  <si>
+    <t>Calculate cost distance to roads using the slope layer</t>
+  </si>
+  <si>
+    <t>ArcToolbox&gt;SpatialAnalystTools&gt;Distance&gt;CostDistance</t>
+  </si>
+  <si>
+    <t>D:\bsu017\Start\Mosaic\Roads\CostDist\rds_edir_1</t>
+  </si>
+  <si>
+    <t>Spectral band</t>
+  </si>
+  <si>
+    <r>
+      <t>Wavelength (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>µm)</t>
+    </r>
+  </si>
+  <si>
+    <t>Resolution (m)</t>
+  </si>
+  <si>
+    <t>Band 1 - Coastal/Aerosol</t>
+  </si>
+  <si>
+    <t>0.433-0.453</t>
+  </si>
+  <si>
+    <t>Band 2 - Blue</t>
+  </si>
+  <si>
+    <t>0.450-0.515</t>
+  </si>
+  <si>
+    <t>Band 3 - Green</t>
+  </si>
+  <si>
+    <t>0.525-0.600</t>
+  </si>
+  <si>
+    <t>Band 4 - Red</t>
+  </si>
+  <si>
+    <t>0.630-0.680</t>
+  </si>
+  <si>
+    <t>Band 5 - Near Infrared</t>
+  </si>
+  <si>
+    <t>0.845-0.885</t>
+  </si>
+  <si>
+    <t>Band 6 - Short Wavelength Infrared</t>
+  </si>
+  <si>
+    <t>1.560-1.660</t>
+  </si>
+  <si>
+    <t>Band 7 - Short Wavelength Infrared</t>
+  </si>
+  <si>
+    <t>2.100-2.300</t>
+  </si>
+  <si>
+    <t>Band 8 - Panchromatic</t>
+  </si>
+  <si>
+    <t>0.500-0.680</t>
+  </si>
+  <si>
+    <t>Band 9 - Cirrus</t>
+  </si>
+  <si>
+    <t>1.360-1.390</t>
+  </si>
+  <si>
+    <t>Band 10 - Long Wavelength Infrared</t>
+  </si>
+  <si>
+    <t>10.30-11.30</t>
+  </si>
+  <si>
+    <t>Band 11 - Long Wavelength Infrared</t>
+  </si>
+  <si>
+    <t>11.50-12.50</t>
+  </si>
+  <si>
+    <t>Veg indices</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>Non-Linear vegetation Index (NLI)</t>
+  </si>
+  <si>
+    <t>((B5^2)-B4)/((B5^2)+B4)</t>
+  </si>
+  <si>
+    <t>don't think this one works</t>
+  </si>
+  <si>
+    <t>Re-normalised Difference Vegetation Index (RDVI)</t>
+  </si>
+  <si>
+    <r>
+      <t>(B5-B4)/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>√(B5+B4)</t>
+    </r>
+  </si>
+  <si>
+    <t>Modified Simple Ratio (MSR)</t>
+  </si>
+  <si>
+    <t>(B5/B4-1)/(√(B5/B4)+1)</t>
+  </si>
+  <si>
+    <t>Atmospherically Resistant Vegetation Index (ARVI)</t>
+  </si>
+  <si>
+    <t>(B5-2*B4+B2)/(B5+2*B4-B2)</t>
+  </si>
+  <si>
+    <t>This needs some work</t>
+  </si>
+  <si>
+    <t>B1+B2+B3+B4+B5+B6+B7</t>
+  </si>
+  <si>
+    <t>This might not be right check the formula</t>
+  </si>
+  <si>
+    <t>Tasseled Cap Transformation - greenness</t>
+  </si>
+  <si>
+    <t>(0.3029 * "b2.tif") + (0.2786 * "b3.tif") + (0.4733 * "b4.tif") + (0.5599 * "b5.tif") + (0.508 * "b6.tif") + (0.1872 * "b7.tif")</t>
+  </si>
+  <si>
+    <t>See Baig 2014</t>
+  </si>
+  <si>
+    <t>Tasseled Cap Transformation - brightness</t>
+  </si>
+  <si>
+    <t>(B2* "b2.tif") + (B3 * "b3.tif") + (B4 * "b4.tif") + (B5 * "b5.tif") + (B6 * "b6.tif") + (B7 * "b7.tif")</t>
+  </si>
+  <si>
+    <t>See Baig 2014 where BX is the number shown in table 2</t>
+  </si>
+  <si>
+    <t>Tasseled Cap Transformation - wetness</t>
+  </si>
+  <si>
+    <t>Tasseled Cap Transformation - 4</t>
+  </si>
+  <si>
+    <t>Tasseled Cap Transformation - 5</t>
+  </si>
+  <si>
+    <t>Tasseled Cap Transformation - 6</t>
   </si>
 </sst>
 </file>
@@ -709,7 +1124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,6 +1174,18 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -773,9 +1200,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -786,7 +1231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -805,6 +1250,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1815,11 +2275,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="299171360"/>
-        <c:axId val="299171752"/>
+        <c:axId val="466430280"/>
+        <c:axId val="466429888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="299171360"/>
+        <c:axId val="466430280"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1862,7 +2322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299171752"/>
+        <c:crossAx val="466429888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1870,7 +2330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="299171752"/>
+        <c:axId val="466429888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.98"/>
@@ -1923,7 +2383,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299171360"/>
+        <c:crossAx val="466430280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3146,6 +3606,720 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C45" t="s">
+        <v>244</v>
+      </c>
+      <c r="D45" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>246</v>
+      </c>
+      <c r="B47" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" t="s">
+        <v>248</v>
+      </c>
+      <c r="D47" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" t="s">
+        <v>248</v>
+      </c>
+      <c r="D48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>252</v>
+      </c>
+      <c r="B49" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" t="s">
+        <v>248</v>
+      </c>
+      <c r="D49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>254</v>
+      </c>
+      <c r="B50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" t="s">
+        <v>257</v>
+      </c>
+      <c r="D52" t="s">
+        <v>258</v>
+      </c>
+      <c r="E52" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>260</v>
+      </c>
+      <c r="B53" t="s">
+        <v>261</v>
+      </c>
+      <c r="C53" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55" t="s">
+        <v>266</v>
+      </c>
+      <c r="D55" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
@@ -11668,7 +12842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -11731,6 +12905,334 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>11</v>
+      </c>
+      <c r="B10" s="13">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13">
+        <v>13</v>
+      </c>
+      <c r="D10" s="13">
+        <v>14</v>
+      </c>
+      <c r="E10" s="13">
+        <v>15</v>
+      </c>
+      <c r="F10" s="13">
+        <v>16</v>
+      </c>
+      <c r="G10" s="13">
+        <v>17</v>
+      </c>
+      <c r="H10" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="16">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>129</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2">
+        <v>42056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>130</v>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3">
+        <v>42080</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>130</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4">
+        <v>42080</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>131</v>
+      </c>
+      <c r="B5">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5">
+        <v>42070</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>131</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6">
+        <v>42070</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
